--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4419049.787574779</v>
+        <v>4417169.607804451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>201.5610994893109</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>134.0896134541867</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>161.5519252761216</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>25.3159054168623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.85943393303082</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>164.5779393906808</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121108</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634789</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>4.765426656858324</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>73.3805213918145</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>70.41761368552075</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.41761368552119</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981167</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>39.43225759193493</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263835</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.41761368552098</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>39.14661165392128</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981167</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263835</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>90.77008984540326</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552096</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
@@ -2773,7 +2773,7 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>214.6690040633257</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552119</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>70.41761368552081</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463113</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.934501327943</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1130.934501327943</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1130.934501327943</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>745.1462487296985</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>738.2007479804951</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>200.8329293182748</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>200.8329293182748</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>200.8329293182748</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2533.965328113049</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2280.203542751141</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.14065540757</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1596.372000137456</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1222.906241876376</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2530.908748199353</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1924.37830756733</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1550.91254930625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,64 +5027,64 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555206</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011508</v>
+        <v>675.0071030383432</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>420.322614832456</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>420.322614832456</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>420.322614832456</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.5090525528011</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.345994172933</v>
+        <v>171.3388302398966</v>
       </c>
       <c r="C19" t="n">
-        <v>168.345994172933</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>168.345994172933</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="S19" t="n">
         <v>1397.590392029363</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449755</v>
+        <v>1119.613926299195</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953627</v>
+        <v>876.0816111495824</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146763</v>
+        <v>597.8166141688959</v>
       </c>
       <c r="X19" t="n">
-        <v>168.345994172933</v>
+        <v>380.9792363271526</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.345994172933</v>
+        <v>171.3388302398966</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
         <v>1536.594541272927</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>906.980684144976</v>
+        <v>807.0577537630746</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953632</v>
+        <v>563.5254386134618</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146768</v>
+        <v>523.6948753892851</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729336</v>
+        <v>306.8574975475419</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,13 +6002,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449757</v>
+        <v>1045.492187519585</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953629</v>
+        <v>801.9598723699718</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146765</v>
+        <v>523.6948753892852</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729333</v>
+        <v>306.8574975475419</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6233,19 +6233,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6306,25 +6306,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729333</v>
+        <v>346.6880607717199</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729333</v>
+        <v>188.9040509000872</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729333</v>
+        <v>188.9040509000872</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449757</v>
+        <v>807.0577537630754</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953629</v>
+        <v>563.5254386134631</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146765</v>
+        <v>563.5254386134631</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729333</v>
+        <v>346.6880607717199</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729333</v>
+        <v>346.6880607717199</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619126</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6543,22 +6543,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977054</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>120.53002873665</v>
@@ -6628,7 +6628,7 @@
         <v>540.2879676172994</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6652,19 +6652,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449757</v>
+        <v>906.9806841449755</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953629</v>
+        <v>663.4483689953628</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146765</v>
+        <v>385.1833720146763</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729333</v>
+        <v>168.3459941729331</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,64 +6686,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996364</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254962</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045196</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525401</v>
@@ -7339,19 +7339,19 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108322</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503155</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>369.0893880493734</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>87.16935584025339</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>234.4116509503159</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305221</v>
+        <v>32.92248665775548</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.6230805871083</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>76.43196988338485</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>80.5002137261512</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>349.765300333856</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>199.6230805871083</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>213.8192266952365</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>82.82564838110197</v>
       </c>
       <c r="D19" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>64.97569763533703</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
         <v>134.3803966972199</v>
@@ -23905,10 +23905,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>168.791328856226</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>63.96278301169864</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>236.0500894189447</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>168.791328856226</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>63.96278301169885</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>236.0500894189449</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>44.62322147545449</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169887</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169864</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>137.1263883408626</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>598410.4508542636</v>
+        <v>598410.4508542634</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>598410.4508542636</v>
+        <v>598410.4508542634</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>598410.4508542636</v>
+        <v>598410.4508542634</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>598410.4508542636</v>
+        <v>598410.4508542635</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>598410.4508542636</v>
+        <v>598410.4508542635</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="F2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="F2" t="n">
-        <v>782058.1194754179</v>
-      </c>
       <c r="G2" t="n">
+        <v>788375.3505184434</v>
+      </c>
+      <c r="H2" t="n">
         <v>788375.3505184437</v>
       </c>
-      <c r="H2" t="n">
-        <v>788375.3505184435</v>
-      </c>
       <c r="I2" t="n">
-        <v>788375.3505184435</v>
+        <v>788375.3505184439</v>
       </c>
       <c r="J2" t="n">
-        <v>788375.3505184435</v>
+        <v>788375.3505184433</v>
       </c>
       <c r="K2" t="n">
-        <v>788375.3505184435</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="M2" t="n">
         <v>821041.7698642845</v>
@@ -26353,7 +26353,7 @@
         <v>821041.7698642843</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642844</v>
+        <v>821041.7698642845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998865167886834e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569112</v>
+        <v>8832.521060569143</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007402</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007548</v>
       </c>
       <c r="G4" t="n">
-        <v>11549.65615884672</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="H4" t="n">
-        <v>11549.65615884672</v>
+        <v>11549.65615884674</v>
       </c>
       <c r="I4" t="n">
-        <v>11549.65615884679</v>
+        <v>11549.65615884677</v>
       </c>
       <c r="J4" t="n">
         <v>11549.6561588468</v>
@@ -26445,19 +26445,19 @@
         <v>11549.65615884679</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732792</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732789</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732788</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.5024650179</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.5024650179</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.5024650179</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
@@ -26497,19 +26497,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.7638704087585</v>
+        <v>297.7638704084384</v>
       </c>
       <c r="C6" t="n">
-        <v>590265.6430849528</v>
+        <v>590265.6430849527</v>
       </c>
       <c r="D6" t="n">
         <v>590265.643084953</v>
       </c>
       <c r="E6" t="n">
-        <v>156994.0253937975</v>
+        <v>156896.5662678254</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706935</v>
+        <v>682056.6027447218</v>
       </c>
       <c r="G6" t="n">
-        <v>675077.67083401</v>
+        <v>674996.0047856451</v>
       </c>
       <c r="H6" t="n">
-        <v>683910.191894579</v>
+        <v>683828.5258462145</v>
       </c>
       <c r="I6" t="n">
-        <v>683910.1918945787</v>
+        <v>683828.5258462146</v>
       </c>
       <c r="J6" t="n">
-        <v>507486.9727019861</v>
+        <v>507405.3066536211</v>
       </c>
       <c r="K6" t="n">
-        <v>683910.1918945789</v>
+        <v>683828.5258462144</v>
       </c>
       <c r="L6" t="n">
-        <v>638485.6330432186</v>
+        <v>638485.6330432184</v>
       </c>
       <c r="M6" t="n">
         <v>558190.129913094</v>
       </c>
       <c r="N6" t="n">
+        <v>692991.1451469312</v>
+      </c>
+      <c r="O6" t="n">
         <v>692991.1451469311</v>
       </c>
-      <c r="O6" t="n">
-        <v>692991.1451469309</v>
-      </c>
       <c r="P6" t="n">
-        <v>692991.1451469311</v>
+        <v>692991.1451469312</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="F4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="F4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26823,13 +26823,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>212.2230705314841</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>90.94549200389761</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.89639508153618</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>200.3937499721748</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>394.0166118086806</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>51.87038096697697</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498799</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,22 +28087,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.414636683656336e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,16 +28336,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571136</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571135</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571135</v>
       </c>
     </row>
     <row r="26">
@@ -29272,22 +29272,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382548</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>702.2839614473862</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127688</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313151</v>
+        <v>284.3175291313149</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758611</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700197</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>369.5330580813616</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127698</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483289</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127697</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
         <v>803.580930408112</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541604</v>
+        <v>315.2861888988637</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951473</v>
@@ -36911,25 +36911,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>350.1985191750476</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>283.5253848149096</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>168.5132465112254</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898804</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>406.7164955186331</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
